--- a/src/analysis_examples/circadb/results_lomb/cosinor_10396278_daam1_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10396278_daam1_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.3153585024719604, 0.4248649939040626]</t>
+          <t>[0.31529718932873585, 0.4249263070472872]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3.735456388653802e-12</v>
+        <v>3.816058580241588e-12</v>
       </c>
       <c r="N2" t="n">
-        <v>3.735456388653802e-12</v>
+        <v>3.816058580241588e-12</v>
       </c>
       <c r="O2" t="n">
         <v>-0.6792632764518469</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.4744831297554861, 0.5314524083580372]</t>
+          <t>[0.47450278381647304, 0.5314327542970503]</t>
         </is>
       </c>
       <c r="U2" t="n">
